--- a/exampleProblems/ch9_053/ch9_053.xlsx
+++ b/exampleProblems/ch9_053/ch9_053.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleLiquidNMRanalysisVoila/development/exampleProblems/ch9_53/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_053/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21A78A57-968E-7640-BE08-EF9F74D424B9}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29BD9325-57F3-4D00-9CA5-C08F36904EEE}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1500" windowWidth="22260" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -148,12 +148,6 @@
   </si>
   <si>
     <t>5,5</t>
-  </si>
-  <si>
-    <t>6,6</t>
-  </si>
-  <si>
-    <t>0,0</t>
   </si>
   <si>
     <t>C7H8O</t>
@@ -163,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,23 +582,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -616,16 +610,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -652,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -681,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -703,14 +697,14 @@
       <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>39</v>
+      <c r="H3" s="1">
+        <v>6</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -732,14 +726,14 @@
       <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
+      <c r="H4" s="1">
+        <v>0</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -761,14 +755,14 @@
       <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
+      <c r="H5" s="1">
+        <v>5</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -790,14 +784,14 @@
       <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
+      <c r="H6" s="1">
+        <v>0</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -808,7 +802,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -819,7 +813,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -830,7 +824,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -841,7 +835,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -866,9 +860,9 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -901,7 +895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -933,7 +927,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -965,7 +959,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -997,7 +991,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1029,7 +1023,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1060,7 +1054,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1074,7 +1068,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1088,7 +1082,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1102,7 +1096,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1116,7 +1110,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1130,10 +1124,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1150,9 +1144,9 @@
       <selection activeCell="A11" sqref="A11:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1196,7 +1190,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1229,7 +1223,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1262,7 +1256,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1295,7 +1289,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1328,7 +1322,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1361,7 +1355,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1394,7 +1388,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1427,7 +1421,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1460,7 +1454,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1493,7 +1487,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1508,7 +1502,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1523,7 +1517,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1538,7 +1532,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1553,7 +1547,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1568,7 +1562,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1583,7 +1577,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1598,7 +1592,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1622,7 +1616,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1633,7 +1627,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1644,7 +1638,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1655,7 +1649,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1666,7 +1660,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1677,7 +1671,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1688,7 +1682,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1699,7 +1693,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1710,7 +1704,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1721,7 +1715,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1732,7 +1726,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1743,7 +1737,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1754,7 +1748,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1765,7 +1759,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1776,7 +1770,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1787,7 +1781,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1798,7 +1792,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1823,9 +1817,9 @@
       <selection activeCell="J3" sqref="J3:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1869,7 +1863,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1900,7 +1894,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1931,7 +1925,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1962,7 +1956,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1993,7 +1987,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2024,7 +2018,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2055,7 +2049,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2086,7 +2080,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2117,7 +2111,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2148,7 +2142,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2179,7 +2173,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2210,7 +2204,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2241,7 +2235,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2272,7 +2266,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2285,7 +2279,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2298,7 +2292,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2311,7 +2305,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2324,7 +2318,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2337,7 +2331,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2350,7 +2344,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2363,7 +2357,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2376,7 +2370,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2389,7 +2383,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2402,7 +2396,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2415,7 +2409,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2428,7 +2422,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2441,7 +2435,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2454,7 +2448,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2467,7 +2461,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2480,7 +2474,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2493,7 +2487,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2506,7 +2500,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2519,7 +2513,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2532,7 +2526,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2545,7 +2539,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2558,7 +2552,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2571,7 +2565,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2584,7 +2578,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2597,7 +2591,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2610,7 +2604,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2623,7 +2617,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2636,7 +2630,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2649,7 +2643,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2662,7 +2656,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2689,9 +2683,9 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -2718,7 +2712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2743,7 +2737,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2768,7 +2762,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2793,7 +2787,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2818,7 +2812,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2843,7 +2837,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2868,7 +2862,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2893,7 +2887,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2904,7 +2898,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2915,7 +2909,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2926,7 +2920,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2937,7 +2931,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2948,7 +2942,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2959,7 +2953,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2984,9 +2978,9 @@
       <selection activeCell="A7" sqref="A7:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -3013,7 +3007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3038,7 +3032,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3063,7 +3057,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3088,7 +3082,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3113,7 +3107,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3138,7 +3132,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3149,7 +3143,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3160,7 +3154,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3171,7 +3165,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3182,7 +3176,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3199,21 +3193,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3430,10 +3409,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3456,20 +3461,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_053/ch9_053.xlsx
+++ b/exampleProblems/ch9_053/ch9_053.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_053/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29BD9325-57F3-4D00-9CA5-C08F36904EEE}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C383FCC1-0D31-4BA0-8035-ED4766637839}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>C7H8O</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>Cc1cccc(O)c1</t>
   </si>
 </sst>
 </file>
@@ -580,25 +586,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3193,6 +3205,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3409,36 +3436,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3461,9 +3462,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_053/ch9_053.xlsx
+++ b/exampleProblems/ch9_053/ch9_053.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_053/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C383FCC1-0D31-4BA0-8035-ED4766637839}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_32BACEBAF6F6BDB9ED0E0604A843028172266CA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EAB63E1-3F3D-460C-92B6-64CF823E86F4}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="1650" windowWidth="23880" windowHeight="13620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -588,11 +589,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -868,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1050,7 @@
         <v>23.1</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="1">
         <v>11.66</v>
@@ -1153,7 +1157,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:I33"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,22 +3208,55 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F590CE28-71EE-7D46-9C7D-34D1D1CC3AA4}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3436,32 +3473,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3478,4 +3505,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_053/ch9_053.xlsx
+++ b/exampleProblems/ch9_053/ch9_053.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="11_32BACEBAF6F6BDB9ED0E0604A843028172266CA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EAB63E1-3F3D-460C-92B6-64CF823E86F4}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="1650" windowWidth="23880" windowHeight="13620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1305" yWindow="795" windowWidth="14505" windowHeight="13620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2695,7 +2695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
@@ -3257,6 +3257,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3473,36 +3488,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3525,9 +3514,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>